--- a/biology/Zoologie/Dendrotriton_xolocalcae/Dendrotriton_xolocalcae.xlsx
+++ b/biology/Zoologie/Dendrotriton_xolocalcae/Dendrotriton_xolocalcae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dendrotriton xolocalcae est une espèce d'urodèles de la famille des Plethodontidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dendrotriton xolocalcae est une espèce d'urodèles de la famille des Plethodontidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Chiapas au Mexique. Elle se rencontre vers 2 000 m d'altitude sur le Cerro Ovando[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Chiapas au Mexique. Elle se rencontre vers 2 000 m d'altitude sur le Cerro Ovando.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent jusqu'à 33,2 mm de longueur standard et les femelles jusqu'à 34,2 mm[2]. La queue est relativement courte avoisinant les 16,5 mm. Cette espèce possède 60 dents. Son dos marron sombre est marbrées de brun clair à jaunâtre, formant souvent un dessin régulier en chevrons. Elle possède trois ligne claires le long du dos ainsi qu'une tache claire entre les yeux. Son ventre est blanc.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent jusqu'à 33,2 mm de longueur standard et les femelles jusqu'à 34,2 mm. La queue est relativement courte avoisinant les 16,5 mm. Cette espèce possède 60 dents. Son dos marron sombre est marbrées de brun clair à jaunâtre, formant souvent un dessin régulier en chevrons. Elle possède trois ligne claires le long du dos ainsi qu'une tache claire entre les yeux. Son ventre est blanc.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en référence au lieu de sa découverte, Xolocalco, le nom indien du Cerro Ovando[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en référence au lieu de sa découverte, Xolocalco, le nom indien du Cerro Ovando.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Taylor, 1941 : New amphibians from the Hobart M. Smith Mexican collections. University of Kansas Science Bulletin, vol. 27, no 1, p. 141-167 (texte intégral).</t>
         </is>
